--- a/docs/PT2/PT2_31.07.24_output.xlsx
+++ b/docs/PT2/PT2_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1537 +505,1823 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730823697.658954</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730823699.3390064</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823697.658954.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823699.3390064.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.47</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>288.21</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.260000000000048</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730823699.9383323</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730823705.2710698</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823699.9383323.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823705.2710698.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.85</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>290.1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730823708.3742955</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730823712.580811</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823708.3742955.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823712.580811.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.09</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>288.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.6899999999999977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730823713.552937</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1730823713.552937.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1730823713.552937.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>288.6</v>
       </c>
-      <c r="J6" t="n">
-        <v>288.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>289.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.5499999999999545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730823731.9425225</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730823734.1801574</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730823731.9425225.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730823734.1801574.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.67</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>134.02</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730823751.0356364</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730823753.5430577</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730823751.0356364.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730823753.5430577.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6773.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6766.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730823760.4976144</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730823766.4311166</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730823760.4976144.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730823766.4311166.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6769.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6746.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>23</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730823790.64053</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730823794.9912393</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730823790.64053.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730823794.9912393.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>513.6</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>514.65</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.049999999999955</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730823797.7726045</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730823797.8702044</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730823797.7726045.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730823797.8702044.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>513.9</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>514.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730823807.473544</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730823812.7216394</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730823807.473544.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730823812.7216394.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1036.6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1040</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-3.400000000000091</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730823814.8396528</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730823815.8543725</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730823814.8396528.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730823815.8543725.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1045</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1039.8</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>5.200000000000045</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730823834.4788783</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730823851.466238</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CNY1730823834.4788783.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CNY1730823851.466238.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>11.972</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>11.864</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1079999999999988</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730823851.4818544</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1730823851.4818544.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/CNY1730823851.4818544.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>11.864</v>
       </c>
-      <c r="J15" t="n">
-        <v>11.864</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.005000000000000782</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730823866.832129</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730823868.923847</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730823866.832129.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730823868.923847.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>129.54</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>130.66</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.120000000000005</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730823888.58634</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730823893.7113147</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730823888.58634.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730823893.7113147.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>164.22</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>165.34</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-1.120000000000005</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730823916.3119376</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730823918.230629</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823916.3119376.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823918.230629.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>50.985</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>50.96</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730823923.265541</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730823924.2004237</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823923.265541.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823924.2004237.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>51.055</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>50.81</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2449999999999974</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730823927.4258535</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730823933.32558</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823927.4258535.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823933.32558.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>50.77</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>50.705</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.06500000000000483</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730823936.2871187</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730823945.3231347</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823936.2871187.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823945.3231347.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1426</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1421</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730823949.5089924</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730823952.0943964</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823949.5089924.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823952.0943964.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1414</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1413.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730823956.0018363</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730823957.1731658</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823956.0018363.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823957.1731658.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1412.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1412</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730823964.0421402</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730823969.7449355</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823964.0421402.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823969.7449355.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>61</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>60.87</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1300000000000026</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730823974.2882154</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730823974.5214558</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823974.2882154.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823974.5214558.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>60.81</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>60.91</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730823978.16363</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730823980.7598286</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823978.16363.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823980.7598286.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>60.74</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>60.62</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730823981.160965</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730823981.160965.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730823981.160965.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>60.66</v>
       </c>
-      <c r="J27" t="n">
-        <v>60.66</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730823989.346285</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730823990.9121969</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SELG1730823989.346285.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SELG1730823990.9121969.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>58.24</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>58.55</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3099999999999952</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730823991.0576842</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730823997.1839383</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/SELG1730823991.0576842.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/SELG1730823997.1839383.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>58.42</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>57.71</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.7100000000000009</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730824007.013556</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730824009.759114</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/SELG1730824007.013556.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/SELG1730824009.759114.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>57.85</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>57.79</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730824016.99621</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730824022.8108838</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824016.99621.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824022.8108838.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>142.06</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>143.28</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.219999999999999</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730824023.5751674</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730824024.8932922</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824023.5751674.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824024.8932922.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>143.12</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>143.06</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730824028.795151</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730824033.7311208</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824028.795151.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730824033.7311208.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>143.94</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>143.94</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2028,244 +2329,289 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730824043.6872716</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730824054.8459916</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730824043.6872716.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730824054.8459916.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>85.48</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>85.02</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730824081.7683008</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730824088.2191756</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730824081.7683008.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730824088.2191756.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>373.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>375.91</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-2.110000000000014</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730824088.2347918</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730824088.3063993</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730824088.2347918.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730824088.3063993.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>375.91</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>375.98</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730824088.3639853</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730824090.8209407</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730824088.3639853.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730824090.8209407.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>375.91</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>376.58</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.6699999999999591</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730824092.2467463</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730824092.4264271</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824092.2467463.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824092.4264271.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>0.09772</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.09772</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2273,335 +2619,398 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730824095.595387</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730824100.3158467</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824095.595387.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824100.3158467.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>0.09822</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.0004000000000000115</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730824105.6669428</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730824107.2527819</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824105.6669428.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824107.2527819.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>0.09956000000000001</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.09970000000000001</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.0001400000000000012</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730824107.3524444</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730824108.0352657</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824107.3524444.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824108.0352657.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>0.09968</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.09998000000000001</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.0003000000000000086</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730824110.5112245</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730824110.813282</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824110.5112245.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/FEES1730824110.813282.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>0.09974000000000001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.09986</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.0001199999999999951</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730824121.6600275</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730824127.8457782</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730824121.6600275.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730824127.8457782.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>34.77</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>34.68</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730824135.6641877</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730824136.981643</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730824135.6641877.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730824136.981643.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>34.58</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>34.515</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.06499999999999773</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730824137.8556583</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730824137.8556583.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730824137.8556583.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>34.545</v>
       </c>
-      <c r="J45" t="n">
-        <v>34.545</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.144999999999996</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +3024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2639,6 +3048,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2652,6 +3076,15 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.0001920000000000033</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2660,11 +3093,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08999999999999631</v>
+        <v>-0.1900000000000048</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.04750000000000121</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.3099999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2673,11 +3115,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7000000000000455</v>
+        <v>0.1500000000000909</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.03750000000002274</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2691,6 +3142,15 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.111666666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2699,11 +3159,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02500000000000568</v>
+        <v>-0.1700000000000017</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.05666666666666723</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2717,6 +3186,15 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.4566666666666871</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2730,6 +3208,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>-1.133333333333364</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2743,6 +3230,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.3866666666666655</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2756,6 +3252,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.1133333333333345</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2764,11 +3269,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1079999999999988</v>
+        <v>-0.102999999999998</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.05149999999999899</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.8599999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2782,6 +3296,15 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2795,6 +3318,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2808,6 +3340,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.8249999999999886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2821,6 +3362,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.460000000000008</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2834,6 +3384,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-1.120000000000005</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2847,6 +3406,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>1.120000000000005</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2860,6 +3428,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2873,6 +3450,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
